--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1304.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1304.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.002838976549279</v>
+        <v>1.100786805152893</v>
       </c>
       <c r="B1">
-        <v>2.533668846872832</v>
+        <v>2.207854270935059</v>
       </c>
       <c r="C1">
-        <v>5.593503332468258</v>
+        <v>9.994098663330078</v>
       </c>
       <c r="D1">
-        <v>2.203611497546623</v>
+        <v>1.253017544746399</v>
       </c>
       <c r="E1">
-        <v>1.259190205472755</v>
+        <v>1.255845427513123</v>
       </c>
     </row>
   </sheetData>
